--- a/application/Output_folder/test_result.xlsx
+++ b/application/Output_folder/test_result.xlsx
@@ -18,10 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -60,12 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -497,8 +493,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44927</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-01-01 00:00:00</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
@@ -528,8 +526,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44928</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-01-02 00:00:00</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>110</v>
@@ -555,8 +555,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44929</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-01-03 00:00:00</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>105</v>
@@ -568,28 +570,28 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44930</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-01-04 00:00:00</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>95</v>
@@ -599,24 +601,26 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44931</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-01-05 00:00:00</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>100</v>
@@ -630,26 +634,30 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44932</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-01-06 00:00:00</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>102</v>
@@ -663,24 +671,26 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44933</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-01-07 00:00:00</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>105</v>
@@ -690,24 +700,26 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44934</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-01-08 00:00:00</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>110</v>
@@ -719,26 +731,30 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44935</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-01-09 00:00:00</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>115</v>
@@ -752,24 +768,26 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44936</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-01-10 00:00:00</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>120</v>
@@ -779,16 +797,16 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -876,8 +894,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44927</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-01-01 00:00:00</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
@@ -912,8 +932,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44928</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-01-02 00:00:00</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>110</v>
@@ -944,8 +966,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44929</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-01-03 00:00:00</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>105</v>
@@ -967,7 +991,7 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0.1</v>
@@ -980,8 +1004,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44930</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-01-04 00:00:00</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>95</v>
@@ -1012,8 +1038,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44931</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-01-05 00:00:00</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>100</v>
@@ -1050,8 +1078,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44932</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-01-06 00:00:00</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>102</v>
@@ -1086,8 +1116,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44933</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-01-07 00:00:00</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>105</v>
@@ -1118,8 +1150,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44934</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-01-08 00:00:00</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>110</v>
@@ -1141,7 +1175,7 @@
         <v>0.1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>0.1</v>
@@ -1154,8 +1188,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44935</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-01-09 00:00:00</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>115</v>
@@ -1190,8 +1226,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44936</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-01-10 00:00:00</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>120</v>
@@ -1254,7 +1292,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -1292,7 +1330,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1320,7 +1358,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
